--- a/Test Scenario _ Test Case.xlsx
+++ b/Test Scenario _ Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13600" yWindow="1960" windowWidth="27880" windowHeight="16420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6920" yWindow="1540" windowWidth="27880" windowHeight="16420" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TS_Version" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="134">
   <si>
     <t>Quality Management System</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>Yurik Danttil</t>
-  </si>
-  <si>
-    <t>SA</t>
   </si>
   <si>
     <t>Phase 1</t>
@@ -1662,8 +1659,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1751,9 +1748,7 @@
       <c r="C9" s="39">
         <v>45264</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>74</v>
-      </c>
+      <c r="D9" s="37"/>
       <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
@@ -1819,13 +1814,13 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="40">
         <v>45264</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="42"/>
@@ -3089,7 +3084,7 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -3132,7 +3127,7 @@
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -3143,7 +3138,7 @@
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -3154,7 +3149,7 @@
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -3165,7 +3160,7 @@
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -3176,7 +3171,7 @@
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -3187,7 +3182,7 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -3198,7 +3193,7 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -3209,7 +3204,7 @@
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -3220,7 +3215,7 @@
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -3231,7 +3226,7 @@
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -3242,7 +3237,7 @@
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -3253,7 +3248,7 @@
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -11183,7 +11178,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:E34"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -11276,9 +11271,7 @@
       <c r="C9" s="39">
         <v>45264</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>74</v>
-      </c>
+      <c r="D9" s="37"/>
       <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
@@ -11344,13 +11337,13 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="40">
         <v>45264</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="42"/>
@@ -16414,8 +16407,8 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -16474,19 +16467,19 @@
     <row r="2" spans="1:12" ht="30" customHeight="1">
       <c r="A2" s="69"/>
       <c r="B2" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
       <c r="E2" s="69"/>
       <c r="F2" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="72" t="s">
-        <v>79</v>
-      </c>
       <c r="H2" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="58"/>
       <c r="J2" s="15"/>
@@ -16501,10 +16494,10 @@
       <c r="E3" s="69"/>
       <c r="F3" s="71"/>
       <c r="G3" s="74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="67"/>
       <c r="J3" s="15"/>
@@ -16519,7 +16512,7 @@
       <c r="E4" s="69"/>
       <c r="F4" s="71"/>
       <c r="G4" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="75" t="s">
         <v>71</v>
@@ -16537,10 +16530,10 @@
       <c r="E5" s="69"/>
       <c r="F5" s="71"/>
       <c r="G5" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" s="58"/>
       <c r="J5" s="16"/>
@@ -16550,19 +16543,19 @@
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="69"/>
       <c r="B6" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="69"/>
       <c r="E6" s="69"/>
       <c r="F6" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="58"/>
       <c r="J6" s="16"/>
@@ -16577,10 +16570,10 @@
       <c r="E7" s="69"/>
       <c r="F7" s="77"/>
       <c r="G7" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" s="58"/>
       <c r="J7" s="16"/>
@@ -16595,7 +16588,7 @@
       <c r="E8" s="69"/>
       <c r="F8" s="77"/>
       <c r="G8" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="80" t="s">
         <v>72</v>
@@ -16608,16 +16601,16 @@
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="69"/>
       <c r="B9" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
       <c r="E9" s="69"/>
       <c r="F9" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="76" t="s">
         <v>72</v>
@@ -16635,10 +16628,10 @@
       <c r="E10" s="69"/>
       <c r="F10" s="81"/>
       <c r="G10" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="16"/>
@@ -16648,16 +16641,16 @@
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="69"/>
       <c r="B11" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="69"/>
       <c r="E11" s="69"/>
       <c r="F11" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="76" t="s">
         <v>72</v>
@@ -16675,10 +16668,10 @@
       <c r="E12" s="69"/>
       <c r="F12" s="71"/>
       <c r="G12" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="58"/>
       <c r="J12" s="16"/>
@@ -16688,16 +16681,16 @@
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="69"/>
       <c r="B13" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="69"/>
       <c r="D13" s="69"/>
       <c r="E13" s="69"/>
       <c r="F13" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="76" t="s">
         <v>72</v>
@@ -16715,10 +16708,10 @@
       <c r="E14" s="69"/>
       <c r="F14" s="70"/>
       <c r="G14" s="76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I14" s="58"/>
       <c r="J14" s="16"/>
@@ -16733,7 +16726,7 @@
       <c r="E15" s="69"/>
       <c r="F15" s="70"/>
       <c r="G15" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="75" t="s">
         <v>71</v>
@@ -16751,10 +16744,10 @@
       <c r="E16" s="69"/>
       <c r="F16" s="70"/>
       <c r="G16" s="76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I16" s="58"/>
       <c r="J16" s="16"/>
@@ -16764,16 +16757,16 @@
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="69"/>
       <c r="E17" s="69"/>
       <c r="F17" s="77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="76" t="s">
         <v>72</v>
@@ -16791,10 +16784,10 @@
       <c r="E18" s="69"/>
       <c r="F18" s="77"/>
       <c r="G18" s="72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H18" s="84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" s="58"/>
       <c r="J18" s="16"/>
@@ -16804,16 +16797,16 @@
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
       <c r="F19" s="77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H19" s="76" t="s">
         <v>72</v>
@@ -16831,10 +16824,10 @@
       <c r="E20" s="69"/>
       <c r="F20" s="77"/>
       <c r="G20" s="85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I20" s="58"/>
       <c r="J20" s="16"/>
@@ -16844,16 +16837,16 @@
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
       <c r="E21" s="69"/>
       <c r="F21" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="76" t="s">
         <v>72</v>
@@ -16871,10 +16864,10 @@
       <c r="E22" s="69"/>
       <c r="F22" s="77"/>
       <c r="G22" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -16889,10 +16882,10 @@
       <c r="E23" s="69"/>
       <c r="F23" s="77"/>
       <c r="G23" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H23" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -16902,16 +16895,16 @@
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="86"/>
       <c r="B24" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="86"/>
       <c r="D24" s="86"/>
       <c r="E24" s="86"/>
       <c r="F24" s="88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="76" t="s">
         <v>72</v>
@@ -16929,10 +16922,10 @@
       <c r="E25" s="86"/>
       <c r="F25" s="88"/>
       <c r="G25" s="89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H25" s="90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -16947,10 +16940,10 @@
       <c r="E26" s="86"/>
       <c r="F26" s="88"/>
       <c r="G26" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -16965,10 +16958,10 @@
       <c r="E27" s="86"/>
       <c r="F27" s="88"/>
       <c r="G27" s="89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H27" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -16978,16 +16971,16 @@
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="86"/>
       <c r="B28" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="86"/>
       <c r="D28" s="86"/>
       <c r="E28" s="86"/>
       <c r="F28" s="88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="76" t="s">
         <v>72</v>
@@ -17005,10 +16998,10 @@
       <c r="E29" s="86"/>
       <c r="F29" s="88"/>
       <c r="G29" s="89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H29" s="90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -17023,10 +17016,10 @@
       <c r="E30" s="86"/>
       <c r="F30" s="88"/>
       <c r="G30" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H30" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -17041,10 +17034,10 @@
       <c r="E31" s="86"/>
       <c r="F31" s="88"/>
       <c r="G31" s="89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H31" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -17059,10 +17052,10 @@
       <c r="E32" s="86"/>
       <c r="F32" s="88"/>
       <c r="G32" s="89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -17077,10 +17070,10 @@
       <c r="E33" s="86"/>
       <c r="F33" s="88"/>
       <c r="G33" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -17095,10 +17088,10 @@
       <c r="E34" s="86"/>
       <c r="F34" s="88"/>
       <c r="G34" s="89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H34" s="91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -17108,16 +17101,16 @@
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="86"/>
       <c r="B35" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="86"/>
       <c r="D35" s="86"/>
       <c r="E35" s="86"/>
       <c r="F35" s="88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H35" s="76" t="s">
         <v>72</v>
@@ -17135,10 +17128,10 @@
       <c r="E36" s="86"/>
       <c r="F36" s="88"/>
       <c r="G36" s="89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -17153,10 +17146,10 @@
       <c r="E37" s="86"/>
       <c r="F37" s="88"/>
       <c r="G37" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H37" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -17171,10 +17164,10 @@
       <c r="E38" s="86"/>
       <c r="F38" s="88"/>
       <c r="G38" s="89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H38" s="91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -17184,16 +17177,16 @@
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="92"/>
       <c r="B39" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="92"/>
       <c r="D39" s="92"/>
       <c r="E39" s="92"/>
       <c r="F39" s="88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G39" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" s="76" t="s">
         <v>72</v>
@@ -17211,10 +17204,10 @@
       <c r="E40" s="93"/>
       <c r="F40" s="88"/>
       <c r="G40" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H40" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -17229,10 +17222,10 @@
       <c r="E41" s="93"/>
       <c r="F41" s="88"/>
       <c r="G41" s="89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H41" s="91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -17247,10 +17240,10 @@
       <c r="E42" s="93"/>
       <c r="F42" s="88"/>
       <c r="G42" s="89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H42" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -17265,10 +17258,10 @@
       <c r="E43" s="94"/>
       <c r="F43" s="88"/>
       <c r="G43" s="89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H43" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
